--- a/Instances/K5017552_NonStationary_b2_fe25_en_rk50_ll1_l20_HTrue_c10.xlsx
+++ b/Instances/K5017552_NonStationary_b2_fe25_en_rk50_ll1_l20_HTrue_c10.xlsx
@@ -1004,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>18.68522135416667</v>
+        <v>19.10634358723958</v>
       </c>
       <c r="I2" t="n">
         <v>200</v>
@@ -1427,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.625</v>
+        <v>12.75</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.6875</v>
+        <v>20.8125</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.125</v>
+        <v>22.53125</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24.375</v>
+        <v>25.3125</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.36328125</v>
+        <v>27.80859375</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.30078125</v>
+        <v>23.8125</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.6533203125</v>
+        <v>24.90234375</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.47509765625</v>
+        <v>21.728759765625</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1980</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3960</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2288,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3960</v>
+        <v>4120</v>
       </c>
     </row>
   </sheetData>
